--- a/biology/Zoologie/Albula_vulpes/Albula_vulpes.xlsx
+++ b/biology/Zoologie/Albula_vulpes/Albula_vulpes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Albule, Banane de mer, Macabien, Kyo kyo (Bonefish)
 Albula vulpes (bonefish en anglais) est une espèce de poissons marins appartenant à la famille des Albulidés.
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Albula vulpes se rencontre dans les zones tropicales et subtropicales de l'Atlantique nord-ouest[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Albula vulpes se rencontre dans les zones tropicales et subtropicales de l'Atlantique nord-ouest.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La taille maximale de Albula vulpes est de 104 cm pour un poids maximal de 10 kg[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La taille maximale de Albula vulpes est de 104 cm pour un poids maximal de 10 kg.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Cette espèce porte de très nombreux Noms vernaculaires[6] dont, en français :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Cette espèce porte de très nombreux Noms vernaculaires dont, en français :
 Albule, au Sénégal ;
 Banane, en Guadeloupe, Haïti, Martinique, aux Seychelles, à Trinidad-et-Tobago ;
 Banane de mer, en France et en Mauritanie ;
@@ -612,9 +630,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom spécifique, du latin vulpes, « renard », lui a probablement été donné en référence à sa nage rapide, certains le baptisent « le sprinter des poissons »[7].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom spécifique, du latin vulpes, « renard », lui a probablement été donné en référence à sa nage rapide, certains le baptisent « le sprinter des poissons ».
 </t>
         </is>
       </c>
@@ -643,9 +663,11 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>[Linnaeus 1758] (la) Carl von Linné, Systema Naturae, vol. 1 (Systema naturae per regna tria naturae, secundum classes, ordines, genera, species, cum characteribus, differentiis, synonymis, locis), 1894, 10e éd. (1re éd. 1758), 824 p. (lire en ligne [sur biodiversitylibrary.org]), p. 310, 312, 776[8].</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[Linnaeus 1758] (la) Carl von Linné, Systema Naturae, vol. 1 (Systema naturae per regna tria naturae, secundum classes, ordines, genera, species, cum characteribus, differentiis, synonymis, locis), 1894, 10e éd. (1re éd. 1758), 824 p. (lire en ligne [sur biodiversitylibrary.org]), p. 310, 312, 776.</t>
         </is>
       </c>
     </row>
